--- a/reports/All_Employees_monthly_attendance_20250324.xlsx
+++ b/reports/All_Employees_monthly_attendance_20250324.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D50"/>
+  <dimension ref="A1:D58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1533,6 +1533,182 @@
         </is>
       </c>
     </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Sai Vaishnavi Molugu </t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>2025-03-21 15:18:00</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>2025-03-22 00:38:00</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>-1 day, 17:39:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>Sowmya Kondam</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>2025-03-21 13:30:00</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>2025-03-22 00:11:00</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>-1 day, 20:47:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>Navaneetha Pishati</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>2025-03-22 11:27:00</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>2025-03-22 19:12:00</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>-1 day, 14:07:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>Muthyaleshwari Kotakonda</t>
+        </is>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>2025-03-22 13:29:00</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>2025-03-23 00:02:00</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>-3 days, 20:24:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" t="inlineStr">
+        <is>
+          <t>Sowmya Kondam</t>
+        </is>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>2025-03-22 16:08:00</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>2025-03-23 00:02:00</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>-2 days, 15:57:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" t="inlineStr">
+        <is>
+          <t>Navaneetha Pishati</t>
+        </is>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>2025-03-23 11:30:00</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>2025-03-23 19:31:00</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>-1 day, 15:43:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" t="inlineStr">
+        <is>
+          <t>Sowmya Kondam</t>
+        </is>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>2025-03-23 13:35:00</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>2025-03-24 00:03:00</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>-1 day, 20:55:00</t>
+        </is>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" t="inlineStr">
+        <is>
+          <t>Muthyaleshwari Kotakonda</t>
+        </is>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>2025-03-23 16:46:00</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>2025-03-24 00:03:00</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>-1 day, 14:33:00</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
